--- a/IMV/IAVapp/analysis_HI_data.xlsx
+++ b/IMV/IAVapp/analysis_HI_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25400" yWindow="580" windowWidth="23780" windowHeight="25760"/>
+    <workbookView xWindow="17640" yWindow="780" windowWidth="23780" windowHeight="25760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
